--- a/assets/product_cost_master.xlsx
+++ b/assets/product_cost_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samarthgarg/Downloads/costing_app-main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8065F7-3A3F-954D-92AB-9F0BA9D61C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E8F5AC-C02A-BF44-ABC8-A56F0093CBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -236,13 +236,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,7 +258,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -291,6 +284,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -316,12 +336,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -340,7 +362,82 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.59999389629810485"/>
@@ -366,6 +463,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.59999389629810485"/>
@@ -400,7 +498,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -416,6 +514,56 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -441,7 +589,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -452,22 +599,22 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -478,7 +625,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -503,21 +650,22 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -545,82 +693,6 @@
       </font>
       <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.59999389629810485"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.59999389629810485"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.59999389629810485"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
@@ -645,6 +717,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -655,22 +728,21 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -681,7 +753,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -706,22 +778,22 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -747,7 +819,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -773,7 +844,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -805,84 +876,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1066,30 +1059,30 @@
     <tableColumn id="5" xr3:uid="{CB790185-0EFC-4F4B-9992-71DA9FB8755B}" name="pvc_rate_per_kg" dataDxfId="25">
       <calculatedColumnFormula>E1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{BCB6AF8A-C203-EE42-B312-EB63EC0D2B50}" name="metal_rate_per_kg" dataDxfId="24">
-      <calculatedColumnFormula>F1</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{BCB6AF8A-C203-EE42-B312-EB63EC0D2B50}" name="metal_rate_per_kg" dataDxfId="0">
+      <calculatedColumnFormula>1350</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F927B40A-A993-B64D-BF4C-C57072447C65}" name="labour_type" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{F927B40A-A993-B64D-BF4C-C57072447C65}" name="labour_type" dataDxfId="24">
       <calculatedColumnFormula>G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6D809D20-BB41-AC43-A822-B62FB3EDD1F1}" name="labour_value" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{6D809D20-BB41-AC43-A822-B62FB3EDD1F1}" name="labour_value" dataDxfId="23">
       <calculatedColumnFormula>4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1E16EEDC-A768-044B-B57E-D839AE7C56A2}" name="coil_weight_kg" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{B6D2ED62-5150-4B4D-90F9-25322CCF0CA1}" name="cores" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{4AB15B73-B76D-BC4A-AC2F-BFB239484584}" name="metal_weight_kg" dataDxfId="22">
+    <tableColumn id="9" xr3:uid="{1E16EEDC-A768-044B-B57E-D839AE7C56A2}" name="coil_weight_kg" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{B6D2ED62-5150-4B4D-90F9-25322CCF0CA1}" name="cores" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{4AB15B73-B76D-BC4A-AC2F-BFB239484584}" name="metal_weight_kg" dataDxfId="20">
       <calculatedColumnFormula>(B2^2*412*C2*D2*J2)/100000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{5692922B-3D28-9A40-813C-2C9ECA5ECB29}" name="pvc_weight_kg" dataDxfId="21">
+    <tableColumn id="12" xr3:uid="{5692922B-3D28-9A40-813C-2C9ECA5ECB29}" name="pvc_weight_kg" dataDxfId="19">
       <calculatedColumnFormula>I2-K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{80EF9973-52F7-6144-B9C3-9975D042AF68}" name="pvc_cost" dataDxfId="20">
+    <tableColumn id="13" xr3:uid="{80EF9973-52F7-6144-B9C3-9975D042AF68}" name="pvc_cost" dataDxfId="18">
       <calculatedColumnFormula>L2*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{9DEFD2D2-F7C6-ED46-8D0B-2ACDC37E4038}" name="metal_cost" dataDxfId="19">
+    <tableColumn id="14" xr3:uid="{9DEFD2D2-F7C6-ED46-8D0B-2ACDC37E4038}" name="metal_cost" dataDxfId="17">
       <calculatedColumnFormula>K2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{ED1D8DC5-9C83-784B-9BD0-8A07A8251947}" name="manufacuturing_cost" dataDxfId="18">
+    <tableColumn id="15" xr3:uid="{ED1D8DC5-9C83-784B-9BD0-8A07A8251947}" name="manufacuturing_cost" dataDxfId="16">
       <calculatedColumnFormula>(M2+N2)*(1+H2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1098,39 +1091,39 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{988E706E-FC91-774B-92A8-F9F9AEF3A5F6}" name="Table25" displayName="Table25" ref="A1:N8" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{988E706E-FC91-774B-92A8-F9F9AEF3A5F6}" name="Table25" displayName="Table25" ref="A1:N8" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A1:N8" xr:uid="{988E706E-FC91-774B-92A8-F9F9AEF3A5F6}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{D6041EFF-E4BB-5840-AC7D-2BB58BABC4C2}" name="product_name" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{D15034DC-AE9A-7647-A5B5-7110705D6CEB}" name="gauge" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{D6041EFF-E4BB-5840-AC7D-2BB58BABC4C2}" name="product_name" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{D15034DC-AE9A-7647-A5B5-7110705D6CEB}" name="gauge" dataDxfId="13">
       <calculatedColumnFormula>B1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{58ED180A-0DD1-264A-996C-5D22C782DAD1}" name="strands" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{58ED180A-0DD1-264A-996C-5D22C782DAD1}" name="strands" dataDxfId="12">
       <calculatedColumnFormula>C1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3775277A-638E-544C-8769-9FC69F0CC070}" name="length_gaj" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{D0ED6EC0-2494-1649-BF50-529CFCECCABD}" name="pvc_rate_per_kg" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{096EDD42-6EED-BA47-9EAD-9297E3AD0E7E}" name="metal_rate_per_kg" dataDxfId="11">
-      <calculatedColumnFormula>950</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{3775277A-638E-544C-8769-9FC69F0CC070}" name="length_gaj" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{D0ED6EC0-2494-1649-BF50-529CFCECCABD}" name="pvc_rate_per_kg" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{096EDD42-6EED-BA47-9EAD-9297E3AD0E7E}" name="metal_rate_per_kg" dataDxfId="1">
+      <calculatedColumnFormula>1350</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C64CD64E-86AC-2342-8D2F-DDBBD03B30A1}" name="labour_type" dataDxfId="5">
+    <tableColumn id="7" xr3:uid="{C64CD64E-86AC-2342-8D2F-DDBBD03B30A1}" name="labour_type" dataDxfId="9">
       <calculatedColumnFormula>G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E81F7060-135A-4E4F-9512-2CA2256806A2}" name="labour_value" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{BB1928F8-292D-FA4D-B196-C685D738D70C}" name="coil_weight_kg" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{D50C4C65-0C23-9243-9CBF-0C25972DD18D}" name="metal_weight_kg" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{E81F7060-135A-4E4F-9512-2CA2256806A2}" name="labour_value" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{BB1928F8-292D-FA4D-B196-C685D738D70C}" name="coil_weight_kg" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{D50C4C65-0C23-9243-9CBF-0C25972DD18D}" name="metal_weight_kg" dataDxfId="6">
       <calculatedColumnFormula>(B2^2*412*C2*D2)/100000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{996280DD-3E09-6F47-BC32-97D44DBA1B4F}" name="pvc_weight_kg" dataDxfId="9">
+    <tableColumn id="12" xr3:uid="{996280DD-3E09-6F47-BC32-97D44DBA1B4F}" name="pvc_weight_kg" dataDxfId="5">
       <calculatedColumnFormula>I2-J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{A449B656-4244-FE47-91E9-7374398A010C}" name="pvc_cost" dataDxfId="8">
+    <tableColumn id="13" xr3:uid="{A449B656-4244-FE47-91E9-7374398A010C}" name="pvc_cost" dataDxfId="4">
       <calculatedColumnFormula>K2*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{70E800CC-8534-7942-99EF-B01431E7F46A}" name="metal_cost" dataDxfId="7">
+    <tableColumn id="14" xr3:uid="{70E800CC-8534-7942-99EF-B01431E7F46A}" name="metal_cost" dataDxfId="3">
       <calculatedColumnFormula>J2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{C2713499-5E47-B047-BE0C-9E014D2F21BB}" name="manufacuturing_cost" dataDxfId="6">
+    <tableColumn id="15" xr3:uid="{C2713499-5E47-B047-BE0C-9E014D2F21BB}" name="manufacuturing_cost" dataDxfId="2">
       <calculatedColumnFormula>(L2+M2)*(1+H2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1426,7 +1419,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1512,12 +1505,13 @@
         <v>70</v>
       </c>
       <c r="F2" s="5">
-        <v>1400</v>
+        <f>1350</f>
+        <v>1350</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="4">
         <f>4</f>
         <v>4</v>
       </c>
@@ -1541,11 +1535,11 @@
       </c>
       <c r="N2" s="5">
         <f t="shared" ref="N2:N13" si="2">K2*F2</f>
-        <v>526.38768000000005</v>
+        <v>507.58812000000006</v>
       </c>
       <c r="O2" s="8">
         <f t="shared" ref="O2:O13" si="3">(M2+N2)*(1+H2)</f>
-        <v>2920.34148</v>
+        <v>2826.3436800000004</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1553,7 +1547,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:H13" si="4">B2</f>
+        <f t="shared" ref="B3:G13" si="4">B2</f>
         <v>6.5</v>
       </c>
       <c r="C3" s="4">
@@ -1569,14 +1563,14 @@
         <v>70</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" si="4"/>
-        <v>1400</v>
+        <f>1350</f>
+        <v>1350</v>
       </c>
       <c r="G3" t="str">
         <f>G2</f>
         <v>percent</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="4">
         <f>4</f>
         <v>4</v>
       </c>
@@ -1600,11 +1594,11 @@
       </c>
       <c r="N3" s="5">
         <f t="shared" si="2"/>
-        <v>789.58152000000007</v>
+        <v>761.38218000000006</v>
       </c>
       <c r="O3" s="8">
         <f t="shared" si="3"/>
-        <v>4310.5122200000005</v>
+        <v>4169.5155200000008</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1628,14 +1622,14 @@
         <v>70</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="4"/>
-        <v>1400</v>
+        <f>1350</f>
+        <v>1350</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="4"/>
         <v>percent</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="4">
         <f>4</f>
         <v>4</v>
       </c>
@@ -1659,11 +1653,11 @@
       </c>
       <c r="N4" s="5">
         <f t="shared" si="2"/>
-        <v>1052.7753600000001</v>
+        <v>1015.1762400000001</v>
       </c>
       <c r="O4" s="8">
         <f t="shared" si="3"/>
-        <v>5840.6829600000001</v>
+        <v>5652.6873600000008</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1686,14 +1680,14 @@
         <v>70</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="4"/>
-        <v>1400</v>
+        <f>1350</f>
+        <v>1350</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="4"/>
         <v>percent</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="4">
         <f>4</f>
         <v>4</v>
       </c>
@@ -1717,11 +1711,11 @@
       </c>
       <c r="N5" s="5">
         <f t="shared" si="2"/>
-        <v>965.04407999999989</v>
+        <v>930.57821999999999</v>
       </c>
       <c r="O5" s="8">
         <f t="shared" si="3"/>
-        <v>5423.9593799999984</v>
+        <v>5251.6300799999999</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1745,14 +1739,14 @@
         <v>70</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="4"/>
-        <v>1400</v>
+        <f>1350</f>
+        <v>1350</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="4"/>
         <v>percent</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="4">
         <f>4</f>
         <v>4</v>
       </c>
@@ -1776,11 +1770,11 @@
       </c>
       <c r="N6" s="5">
         <f t="shared" si="2"/>
-        <v>1447.56612</v>
+        <v>1395.8673299999998</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="3"/>
-        <v>7995.9390699999994</v>
+        <v>7737.4451199999985</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1804,14 +1798,14 @@
         <v>70</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="4"/>
-        <v>1400</v>
+        <f>1350</f>
+        <v>1350</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="4"/>
         <v>percent</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="4">
         <f>4</f>
         <v>4</v>
       </c>
@@ -1835,11 +1829,11 @@
       </c>
       <c r="N7" s="5">
         <f t="shared" si="2"/>
-        <v>1930.0881599999998</v>
+        <v>1861.15644</v>
       </c>
       <c r="O7" s="8">
         <f t="shared" si="3"/>
-        <v>10847.918759999997</v>
+        <v>10503.26016</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1862,14 +1856,14 @@
         <v>70</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="4"/>
-        <v>1400</v>
+        <f>1350</f>
+        <v>1350</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="4"/>
         <v>percent</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="4">
         <f>4</f>
         <v>4</v>
       </c>
@@ -1894,11 +1888,11 @@
       </c>
       <c r="N8" s="5">
         <f t="shared" si="2"/>
-        <v>1579.1630400000001</v>
+        <v>1522.7643600000001</v>
       </c>
       <c r="O8" s="8">
         <f t="shared" si="3"/>
-        <v>8761.0244400000011</v>
+        <v>8479.0310400000017</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1922,14 +1916,14 @@
         <v>70</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="4"/>
-        <v>1400</v>
+        <f>1350</f>
+        <v>1350</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="4"/>
         <v>percent</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="4">
         <f>4</f>
         <v>4</v>
       </c>
@@ -1953,11 +1947,11 @@
       </c>
       <c r="N9" s="5">
         <f t="shared" si="2"/>
-        <v>2368.7445600000001</v>
+        <v>2284.1465399999997</v>
       </c>
       <c r="O9" s="8">
         <f t="shared" si="3"/>
-        <v>12931.53666</v>
+        <v>12508.546559999997</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1981,14 +1975,14 @@
         <v>70</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="4"/>
-        <v>1400</v>
+        <f>1350</f>
+        <v>1350</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="4"/>
         <v>percent</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="4">
         <f>4</f>
         <v>4</v>
       </c>
@@ -2012,11 +2006,11 @@
       </c>
       <c r="N10" s="5">
         <f t="shared" si="2"/>
-        <v>3158.3260800000003</v>
+        <v>3045.5287200000002</v>
       </c>
       <c r="O10" s="8">
         <f t="shared" si="3"/>
-        <v>17522.048880000002</v>
+        <v>16958.062080000003</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2039,14 +2033,14 @@
         <v>70</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="4"/>
-        <v>1400</v>
+        <f>1350</f>
+        <v>1350</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="4"/>
         <v>percent</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="4">
         <f>4</f>
         <v>4</v>
       </c>
@@ -2070,11 +2064,11 @@
       </c>
       <c r="N11" s="5">
         <f t="shared" si="2"/>
-        <v>2456.4758400000001</v>
+        <v>2368.7445600000001</v>
       </c>
       <c r="O11" s="8">
         <f t="shared" si="3"/>
-        <v>13348.26024</v>
+        <v>12909.60384</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -2098,14 +2092,14 @@
         <v>70</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="4"/>
-        <v>1400</v>
+        <f>1350</f>
+        <v>1350</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="4"/>
         <v>percent</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="4">
         <f>4</f>
         <v>4</v>
       </c>
@@ -2129,11 +2123,11 @@
       </c>
       <c r="N12" s="5">
         <f t="shared" si="2"/>
-        <v>3684.7137600000001</v>
+        <v>3553.1168400000001</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" si="3"/>
-        <v>19742.390359999998</v>
+        <v>19084.405760000001</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -2157,14 +2151,14 @@
         <v>70</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="4"/>
-        <v>1400</v>
+        <f>1350</f>
+        <v>1350</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="4"/>
         <v>percent</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="4">
         <f>4</f>
         <v>4</v>
       </c>
@@ -2188,11 +2182,11 @@
       </c>
       <c r="N13" s="5">
         <f t="shared" si="2"/>
-        <v>4912.9516800000001</v>
+        <v>4737.4891200000002</v>
       </c>
       <c r="O13" s="8">
         <f t="shared" si="3"/>
-        <v>26696.520479999999</v>
+        <v>25819.20768</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +2202,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2251,7 +2245,7 @@
       <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I1" t="s">
@@ -2290,13 +2284,13 @@
         <v>130</v>
       </c>
       <c r="F2" s="13">
-        <f>950</f>
-        <v>950</v>
+        <f>1350</f>
+        <v>1350</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="10">
         <v>4</v>
       </c>
       <c r="I2" s="10">
@@ -2316,11 +2310,11 @@
       </c>
       <c r="M2" s="5">
         <f t="shared" ref="M2:M8" si="2">J2*F2</f>
-        <v>282.5908</v>
+        <v>401.57640000000004</v>
       </c>
       <c r="N2" s="8">
         <f t="shared" ref="N2:N8" si="3">(L2+M2)*(1+H2)</f>
-        <v>1869.6024</v>
+        <v>2464.5304000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2341,14 +2335,14 @@
         <v>130</v>
       </c>
       <c r="F3" s="13">
-        <f>950</f>
-        <v>950</v>
+        <f>1350</f>
+        <v>1350</v>
       </c>
       <c r="G3" t="str">
         <f>G2</f>
         <v>percent</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="10">
         <f>H2</f>
         <v>4</v>
       </c>
@@ -2369,11 +2363,11 @@
       </c>
       <c r="M3" s="5">
         <f t="shared" si="2"/>
-        <v>494.53389999999996</v>
+        <v>702.75869999999998</v>
       </c>
       <c r="N3" s="8">
         <f t="shared" si="3"/>
-        <v>2914.3041999999996</v>
+        <v>3955.4282000000003</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2396,14 +2390,14 @@
         <v>130</v>
       </c>
       <c r="F4" s="13">
-        <f>950</f>
-        <v>950</v>
+        <f>1350</f>
+        <v>1350</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:H8" si="6">G3</f>
         <v>percent</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="10">
         <f>H3</f>
         <v>4</v>
       </c>
@@ -2424,11 +2418,11 @@
       </c>
       <c r="M4" s="5">
         <f t="shared" si="2"/>
-        <v>777.12470000000008</v>
+        <v>1104.3351</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" si="3"/>
-        <v>4393.9066000000003</v>
+        <v>6029.9585999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2451,14 +2445,14 @@
         <v>130</v>
       </c>
       <c r="F5" s="13">
-        <f>950</f>
-        <v>950</v>
+        <f>1350</f>
+        <v>1350</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="6"/>
         <v>percent</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -2479,11 +2473,11 @@
       </c>
       <c r="M5" s="5">
         <f t="shared" si="2"/>
-        <v>1271.6586</v>
+        <v>1807.0937999999999</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" si="3"/>
-        <v>7048.2107999999989</v>
+        <v>9725.3867999999984</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2506,14 +2500,14 @@
         <v>130</v>
       </c>
       <c r="F6" s="13">
-        <f>950</f>
-        <v>950</v>
+        <f>1350</f>
+        <v>1350</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="6"/>
         <v>percent</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="10">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -2534,11 +2528,11 @@
       </c>
       <c r="M6" s="5">
         <f t="shared" si="2"/>
-        <v>1978.1355999999998</v>
+        <v>2811.0347999999999</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="3"/>
-        <v>10747.216799999998</v>
+        <v>14911.712800000001</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -2561,14 +2555,14 @@
         <v>130</v>
       </c>
       <c r="F7" s="13">
-        <f>950</f>
-        <v>950</v>
+        <f>1350</f>
+        <v>1350</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="6"/>
         <v>percent</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="10">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -2589,11 +2583,11 @@
       </c>
       <c r="M7" s="5">
         <f t="shared" si="2"/>
-        <v>2967.2033999999999</v>
+        <v>4216.5522000000001</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="3"/>
-        <v>16445.825199999999</v>
+        <v>22692.569199999998</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2616,14 +2610,14 @@
         <v>130</v>
       </c>
       <c r="F8" s="13">
-        <f>950</f>
-        <v>950</v>
+        <f>1350</f>
+        <v>1350</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="6"/>
         <v>percent</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="10">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -2644,11 +2638,11 @@
       </c>
       <c r="M8" s="5">
         <f t="shared" si="2"/>
-        <v>4945.3389999999999</v>
+        <v>7027.5869999999995</v>
       </c>
       <c r="N8" s="8">
         <f t="shared" si="3"/>
-        <v>26868.042000000001</v>
+        <v>37279.281999999999</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
